--- a/spreadsheet/macrofree/appsvc_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/appsvc_checklist.zh-Hant.xlsx
@@ -1069,10 +1069,14 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>有關最佳實踐，請參閱基線高可用性區域冗餘 Web 應用程式體系結構</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n"/>
+          <t>實施基線高可用性區域冗餘 Web 應用程式體系結構。確保 Azure 應用服務位於 Premium V2/V3 或獨立 v2 層上，以獲得區域冗餘支援。</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>利用區域冗餘來確保在發生區域級故障時的高可用性。使用 Premium V2/V3 或獨立 v2 層，它們為區域冗餘部署提供支援，並確保在災難期間將停機時間降至最低。</t>
+        </is>
+      </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
           <t>低</t>
@@ -1086,7 +1090,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1115,10 +1119,14 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>使用高級層和標準層。這些層支援暫存槽和自動備份。</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="n"/>
+          <t>將高級和標準層用於暫存槽和自動備份。使備份保留期與災難恢復需求保持一致。</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>利用暫存槽進行零停機部署和自動備份，以確保災難恢復。根據槽數和災難恢復要求選擇合適的層（Standard 或 Premium）。</t>
+        </is>
+      </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1132,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1161,10 +1169,14 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>利用區域適用的可用性區域（需要高級 v2 或 v3 層）</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="n"/>
+          <t>利用區域適用的可用區（需要 Premium V2/V3 層）。檢查可用區的區域支援。</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="inlineStr">
+        <is>
+          <t>可用區在一個區域中的數據中心之間提供物理隔離，從而減少中斷期間的停機時間。驗證你的區域是否支援可用性區域，並將 Premium V2/V3 層用於區域冗餘部署。</t>
+        </is>
+      </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
           <t>高</t>
@@ -1178,7 +1190,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/migrate-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-service</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1207,10 +1219,14 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>實施健康檢查</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="n"/>
+          <t>實施運行狀況檢查以監視和檢測應用服務實例的問題。運行狀況檢查可在實例失敗時自動替換實例。</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>啟用運行狀況檢查以即時檢測運行狀況不佳的實例並自動替換它們，以保持高可用性和應用程式可靠性。</t>
+        </is>
+      </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1224,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1253,10 +1269,14 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>請參閱 Azure 應用服務的備份和還原最佳做法</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>請參閱 Azure 應用服務和應用服務環境 （ASE） 的備份和還原最佳做法，以確保數據可用性和恢復能力。</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>遵循在 Azure 應用服務和 ASE 中配置備份和還原的最佳做法，以保證數據可用性並確保在災難情況下恢復。</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>高</t>
@@ -1270,7 +1290,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-backup</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-backup</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1299,10 +1319,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>實現 Azure 應用服務可靠性最佳做法</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>實施 Azure 應用服務可靠性最佳做法，包括自動縮放、容錯、運行狀況檢查和區域冗餘。</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>通過將縮放、容錯、監視和區域冗餘合併到應用服務體系結構中，確保高可用性。利用運行狀況檢查和可用區來保持正常運行時間。</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>高</t>
@@ -1316,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1345,10 +1369,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>熟悉如何在災難期間將應用服務應用移動到另一個區域</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>熟悉應用服務區域故障轉移，包括主動-主動和主動-被動配置、自動故障轉移和 IaC 部署。</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>通過實施區域故障轉移策略為災難恢復做好準備。利用主動-主動和主動-被動配置、自動故障轉移和基礎設施即代碼 （IaC） 在中斷期間實現無縫故障轉移。</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>低</t>
@@ -1362,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1391,10 +1419,14 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>熟悉 Azure 應用服務中的可靠性支援</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="n"/>
+          <t>熟悉 Azure 應用服務中的可靠性支援，包括縮放選項、SLA 和自動恢復機制。</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>Azure 應用服務提供內置的可靠性功能，包括縮放、容錯和服務級別協定 （SLA）。利用這些功能在中斷期間保持一致的性能。</t>
+        </is>
+      </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>高</t>
@@ -1408,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/reliability-app-service</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1437,10 +1469,14 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>確保為在應用服務計劃上運行的函數應用啟用“Always On”</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>確保為在應用服務計劃上運行的 Function Apps 啟用“Always On”，以防止空閒並確保持續可用性。</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>為 Function Apps 啟用「Always On」可確保應用不會處於空閒狀態，從而始終保持其可用性和回應能力。</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1454,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-functions/dedicated-plan#always-on</t>
+          <t>https://learn.microsoft.com/azure/azure-functions/dedicated-plan#always-on</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1483,10 +1519,14 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>使用運行狀況檢查監視應用服務實例</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="n"/>
+          <t>使用運行狀況檢查來監控應用程式服務實例，以檢測運行狀況不佳的實例並自動替換它們。</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>運行狀況檢查會監視應用服務實例的運行狀況，從而自動替換運行狀況不佳的實例以保持高可用性。</t>
+        </is>
+      </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1500,7 +1540,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1524,15 +1564,19 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>使用 Application Insights 可用性測試監視 Web 應用或網站的可用性和回應能力</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n"/>
+          <t>使用帶有自定義規則的自動修復功能，在發生故障時自動重啟應用服務實例。</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>利用 Azure 應用服務中的自動修復功能，根據預定義的故障條件（如記憶體閾值、HTTP 錯誤或特定事件日誌）自動重啟實例或觸發自定義操作。</t>
+        </is>
+      </c>
       <c r="E18" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1546,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-diagnostics</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>60b3a935-33e5-45c9-87c7-53882e395b46</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1575,13 +1619,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>使用 Application Insights 標準測試監視 Web 應用或網站的可用性和回應能力</t>
+          <t>使用 Application Insights 可用性測試監視 Web 應用或網站的可用性和回應能力，確保主動檢測性能問題和停機時間。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1636,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-standard-tests</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1644,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,27 +1655,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 儲存機密</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>使用 Azure Key Vault 儲存應用程式所需的任何機密。 Key Vault 為儲存機密提供安全且經過審核的環境，並通過 Key Vault SDK 或應用服務 Key Vault 引用與應用服務很好地集成。</t>
-        </is>
-      </c>
+          <t>使用 Application Insights 標準測試監視 Web 應用或網站的可用性和回應能力</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1642,7 +1682,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-standard-tests</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1650,7 +1690,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1661,27 +1701,27 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識連接到 Key VaultUse Managed Identity to connect to Key Vault</t>
+          <t>為關鍵 Application Insights 指標（例如響應時間和故障率）設置警報。</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識通過 Key Vault SDK 或透過應用服務 Key Vault 引用連接到 Key Vault。</t>
+          <t>根據 Application Insights 指標配置回應時間、故障率和整體可用性的 Azure Monitor 警報。警報有助於主動檢測問題並縮短平均恢復時間 （MTTR）。</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1692,7 +1732,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/alerts</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1700,7 +1740,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>e52e4514-02a7-4e81-a98e-88ce1b18e557</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1721,12 +1761,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 儲存 TLS 證書。</t>
+          <t>使用 Azure Key Vault 儲存應用程式所需的任何機密。Key Vault 提供安全、託管和審核的環境來儲存機密，並通過應用服務 Key Vault 引用與應用服務無縫集成，以增強安全性。</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>將應用服務 TLS 證書存儲在 Key Vault 中。</t>
+          <t>Azure Key Vault 可確保機密加密、安全存儲，並且僅由授權應用程式訪問。它支持審核日誌記錄和密鑰版本控制，並降低意外洩露敏感信息的風險。</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1742,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1750,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1771,17 +1811,17 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>隔離處理敏感信息的系統</t>
+          <t>使用託管標識通過應用服務 Key Vault 引用安全地連接到 Azure Key Vault 以存取機密。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>處理敏感信息的系統應隔離。 為此，請使用單獨的應用服務計劃或應用服務環境，並考慮使用不同的訂閱或管理組。</t>
+          <t>託管標識允許應用服務安全地向 Azure Key Vault 進行身份驗證，從而消除了對硬編碼憑據的需求。這降低了憑證洩露的風險，並簡化了密鑰管理以增強安全性。</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1792,7 +1832,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1800,7 +1840,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1821,17 +1861,17 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>不要將敏感數據存儲在本地磁碟上</t>
+          <t>使用 Azure Key Vault 安全地存儲和管理應用服務的 TLS 證書。</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>應用服務上的本地磁碟未加密，敏感數據不應存儲在這些磁碟上。 （例如：D：\\Local 和 %TMP%）。</t>
+          <t>將 TLS 證書存儲在 Azure Key Vault 中，通過提供集中、安全的證書管理和自動續訂來增強安全性。這降低了手動處理錯誤和證書過期的風險。</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1842,7 +1882,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1850,7 +1890,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1866,17 +1906,17 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問控制</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>使用已建立的身份提供程式進行身份驗證</t>
+          <t>使用單獨的應用服務計劃、應用服務環境 （ASE） 隔離處理敏感資訊的系統，並考慮使用不同的訂閱或管理組以增強安全性。</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>對於經過身份驗證的 Web 應用程式，請使用成熟的標識提供者，例如 Azure AD 或 Azure AD B2C。 利用所選的應用程式框架與此提供程式整合，或使用應用服務身份驗證/授權功能。</t>
+          <t>為了最大限度地減少暴露並提高安全性，請隔離處理敏感數據的系統。利用單獨的應用服務計劃或應用服務環境進行隔離，並使用不同的訂閱或管理組來強制實施更嚴格的邊界和治理。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1892,7 +1932,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1900,7 +1940,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1916,22 +1956,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問控制</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>從受信任的環境部署</t>
+          <t>不要將敏感數據存儲在本地磁碟上</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>將代碼從受控且受信任的環境（例如管理良好且安全的 DevOps 部署管道）部署到應用服務。這樣可以避免未經版本控制和驗證從惡意主機部署的代碼。</t>
+          <t>應用服務上的本地磁碟未加密，敏感數據不應存儲在這些磁碟上。 （例如：D：\\Local 和 %TMP%）。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1942,7 +1982,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1950,7 +1990,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,17 +2011,17 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>禁用基本身份驗證</t>
+          <t>使用 Microsoft Entra ID 或 B2C 進行安全身份驗證和單點登錄 （SSO）。</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>禁用 FTP/FTPS 和 WebDeploy/SCM 的基本身份驗證。 這將禁止訪問這些服務，並強制使用 Azure AD 安全終結點進行部署。 請注意，還可以使用 Azure AD 憑據打開 SCM 網站。</t>
+          <t>使用 Microsoft Entra ID 或 B2C 進行跨應用程式的安全使用者身份驗證和單點登錄 （SSO）。使用內置的應用服務身份驗證/授權功能進行集成，以簡化安全性並符合 OpenID Connect 等現代身份驗證協定。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1992,14 +2032,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2020,12 +2060,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識連接到資源</t>
+          <t>將代碼從受信任且安全的環境部署到應用服務。</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>如果可能，請使用託管標識連接到 Azure AD 受保護的資源。 如果無法做到這一點，請將機密存儲在 Key Vault 中，並改用託管標識連接到 Key Vault。</t>
+          <t>確保對應用服務的所有代碼部署都源自受控、安全的環境，例如管理良好的 DevOps 管道。這種做法通過實施版本控制、代碼驗證和安全託管來降低部署未經授權或惡意代碼的風險。</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2041,14 +2081,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2069,12 +2109,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識拉取容器</t>
+          <t>禁用 FTP/FTPS 和 WebDeploy/SCM 的基本身份驗證。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Azure 容器註冊表中儲存的映像，請使用託管標識拉取這些映像。</t>
+          <t>禁用 FTP/FTPS 和 WebDeploy/SCM 的基本身份驗證，通過強制實施 Microsoft Entra ID 保護的端點進行部署來增強安全性。這可確保只有使用 Microsoft Entra ID 憑據的經過身份驗證的使用者才能訪問部署服務，包括 SCM 網站。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2090,14 +2130,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,22 +2153,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>日誌記錄和監視</t>
+          <t>身份和訪問控制</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>將應用服務運行時日誌發送到Log Analytics</t>
+          <t>使用託管標識連接到受 Microsoft Entra ID 保護的資源。</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>通過配置應用服務的診斷設置，可以將所有遙測數據發送到Log Analytics，作為日誌記錄和監視的中心目標。這允許你監視應用服務的運行時活動，例如 HTTP 日誌、應用程式日誌、平臺日誌等。</t>
+          <t>盡可能使用託管標識安全地連接到受 Microsoft Entra ID 保護的資源，而無需存儲憑據。如果這不可行，請將機密存儲在 Azure Key Vault 中，並使用託管標識訪問它們，以維護安全性並降低憑據洩露的風險。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2139,14 +2179,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,22 +2202,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>日誌記錄和監視</t>
+          <t>身份和訪問控制</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>將應用服務活動日誌發送到Log Analytics</t>
+          <t>使用託管標識從 Azure 容器註冊表拉取容器映像。</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>設置診斷設置，將活動日誌發送到Log Analytics，作為日誌記錄和監視的中心目標。這樣，你就可以監視應用服務資源本身上的控制平面活動。</t>
+          <t>使用存儲在 Azure 容器註冊表中的映像時，請使用託管標識拉取這些映像，以避免存儲憑據。這可確保對容器映像的安全訪問，並降低憑據洩露的風險。</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2188,14 +2228,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2211,17 +2251,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>日誌記錄和監控</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>應控制出站網路訪問</t>
+          <t>將應用服務運行時和安全日誌發送到 Log Analytics，以便進行集中監視和發出警報。</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>使用區域 VNet 集成、網路安全組和 UDR 的組合來控制出站網路訪問。 流量應路由到 NVA，例如 Azure 防火牆。 確保監控防火牆的日誌。</t>
+          <t>配置診斷設置以將遙測和安全日誌（包括 HTTP、平臺和審核日誌）發送到 Log Analytics。集中式日誌記錄增強了監控、威脅檢測和合規性報告。</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2237,7 +2277,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2285,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,22 +2301,22 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>日誌記錄和監控</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>確保與互聯網位址的出站通信具有穩定的IP</t>
+          <t>將應用服務活動日誌發送到Log Analytics</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>可以使用 VNet 集成並使用 VNet NAT 閘道或 NVA（如 Azure 防火牆）來提供穩定的出站 IP。 這允許接收方根據需要根據IP列出允許清單。 請注意，對於與 Azure 服務的通信，通常不需要依賴於 IP 位址，應改用服務終結點等機制。 （此外，在接收端使用專用終結點可避免發生 SNAT，並提供穩定的出站 IP 範圍。</t>
+          <t>設置診斷設置，將活動日誌發送到Log Analytics，作為日誌記錄和監視的中心目標。這樣，就可以監視應用服務資源本身的控制平面活動。</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2287,7 +2327,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2295,7 +2335,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2316,17 +2356,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>應控制入站網路訪問</t>
+          <t>使用 VNet 集成、NSG、UDR 和防火牆控制應用服務的出站網路訪問。</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>使用應用服務訪問限制、服務終結點或專用終結點的組合來控制入站網路訪問。對於 Web 應用本身和 SCM 網站，可能需要和配置不同的訪問限制。</t>
+          <t>使用區域 VNet 集成、網路安全組 （NSG） 和使用者定義的路由 （UDR） 來控制出站網路訪問。通過網路虛擬設備 （NVA）（如 Azure 防火牆）路由流量，並監視防火牆日誌，以確保流量得到正確控制和安全。</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2337,7 +2377,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2345,7 +2385,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2366,17 +2406,17 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>在應用服務前面使用 WAF</t>
+          <t>使用 VNet NAT 閘道或 Azure 防火牆確保出站通信的IP穩定。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>使用 Web 應用程式防火牆（如應用程式閘道或 Azure Front Door）防範惡意入站流量。 請務必監控 WAF 的日誌。</t>
+          <t>通過使用與 NAT 閘道或網路虛擬裝置 （NVA）（如 Azure 防火牆）的 VNet 整合來提供穩定的出站 IP。這使接收方能夠在必要時基於IP進行允許清單。對於與 Azure 服務的通信，請使用服務終結點或專用終結點等機制來避免依賴靜態 IP，從而確保安全高效的連接。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2387,7 +2427,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2395,7 +2435,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2416,12 +2456,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>避免繞過 WAF</t>
+          <t>使用訪問限制、服務終端節點或私有終端節點控制入站網路訪問。</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>確保僅鎖定對 WAF 的訪問，從而無法繞過 WAF。 結合使用訪問限制、服務終結點和專用終結點。</t>
+          <t>通過配置應用服務訪問限制、服務終結點或專用終結點來控制入站網路訪問。確保為 Web 應用程式和 SCM（部署）網站設置適當的限制，以限制未經授權的訪問並增強安全性。</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2445,7 +2485,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2466,17 +2506,17 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>將最低 TLS 策略設置為 1.2</t>
+          <t>在應用服務前面使用 Web 應用程式防火牆 （WAF）。</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>在應用服務配置中將最低 TLS 策略設置為 1.2。</t>
+          <t>通過使用 Azure 應用程式閘道或 Azure Front Door 部署 Web 應用程式防火牆 （WAF），保護應用服務免受惡意入站流量的侵害。確保定期監控 WAF 日誌，以檢測和回應安全威脅。</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2527,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2495,7 +2535,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2516,12 +2556,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>僅使用 HTTPS</t>
+          <t>確保通過保護對 App Service 的訪問來繞過 WAF。</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>將應用服務配置為僅使用 HTTPS。 這會導致應用服務從 HTTP 重定向到 HTTPS。 強烈建議在代碼或 WAF 中使用 HTTP 嚴格傳輸安全性 （HSTS），這會通知瀏覽器只能使用 HTTPS 訪問網站。</t>
+          <t>若要防止繞過 Web 應用程式防火牆 （WAF），請使用訪問限制、服務終結點和專用終結點鎖定對應用服務的訪問。這可確保所有流量都通過 WAF 路由，從而提供安全的前層保護。</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2537,7 +2577,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2545,7 +2585,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2566,17 +2606,17 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>不得將通配符用於 CORS</t>
+          <t>在應用服務配置中，將最低 TLS 策略設置為 1.2 或更高，最好是 1.3。</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>不要在 CORS 配置中使用通配符，因為這允許所有源訪問服務（從而破壞 CORS 的目的）。具體而言，僅允許您希望能夠訪問服務的源。</t>
+          <t>確保將最低 TLS 策略設置為 1.2 或更高版本，並優先考慮 TLS 1.3，以通過更強大的加密協定增強安全性。TLS 1.3 提供了額外的安全改進和更快的握手時間，從而減少了與舊版本相關的漏洞。</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2627,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2595,7 +2635,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2616,12 +2656,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>關閉遠端調試</t>
+          <t>僅使用 HTTPS，並考慮啟用 HTTP 嚴格傳輸安全性 （HSTS）。</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>不得在生產環境中啟用遠端調試，因為這會在服務上打開其他埠，從而增加攻擊面。請注意，該服務會在 48 小時後自動轉為遠端調試。</t>
+          <t>將應用服務配置為強制實施僅限 HTTPS，自動將所有 HTTP 流量重定向到 HTTPS。此外，在您的代碼中或通過 Web 應用程式防火牆 （WAF） 實施 HTTP 嚴格傳輸安全 （HSTS），以確保瀏覽器僅通過 HTTPS 訪問網站，從而通過防止降級攻擊來增強安全性。</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2637,7 +2677,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2645,7 +2685,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2666,17 +2706,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>啟用 Defender for Cloud - Defender for App Service</t>
+          <t>避免對 CORS 使用通配符;顯式指定允許的源。</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>啟用 Defender for App Service。 這（除其他威脅外）檢測與已知惡意IP位址的通信。 在操作過程中查看 Defender for App Service 中的建議。</t>
+          <t>請勿在 CORS 配置中使用通配符 （*），因為這允許從任何源進行不受限制的訪問，從而損害安全性。相反，請明確指定允許訪問服務的可信源，從而確保受控訪問。</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2687,7 +2727,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2695,7 +2735,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2716,17 +2756,17 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>在 WAF VNet 上啟用 DDOS 保護標準</t>
+          <t>在生產環境中關閉遠程調試。</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Azure 在其網路上提供 DDoS 基本保護，可以通過智慧 DDoS 標準功能進行改進，該功能可以瞭解正常的流量模式並檢測異常行為。DDoS 標準適用於虛擬網路，因此必須為應用前面的網路資源（例如應用程式閘道或 NVA）配置它。</t>
+          <t>不應在生產環境中啟用遠端調試，因為它會打開額外的埠，從而增加攻擊面。儘管應用服務會在 48 小時後自動關閉遠端調試，但建議在生產環境中手動禁用它，以維護安全的環境。</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2737,7 +2777,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2745,7 +2785,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2766,12 +2806,12 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>通過虛擬網路拉取容器</t>
+          <t>啟用 Defender for Cloud - Defender for App Service</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Azure 容器註冊表中儲存的映像，請使用其專用終結點和應用設置“WEBSITE_PULL_IMAGE_OVER_VNET”通過虛擬網络從 Azure 容器註冊表拉取這些映射。</t>
+          <t>啟用適用於應用服務的Defender。 這（以及其他威脅）檢測與已知惡意IP位址的通信。 在操作過程中，查看 Defender for App Service 的建議。</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2787,7 +2827,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2795,7 +2835,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2811,17 +2851,17 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>滲透測試</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>進行滲透測試</t>
+          <t>在 WAF VNet 上啟用 DDOS 防護標準</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>按照參與的滲透測試規則對 Web 應用程式進行滲透測試。</t>
+          <t>Azure 在其網路上提供 DDoS 基本保護，這可以通過智慧 DDoS 標準功能進行改進，該功能可以瞭解正常流量模式並檢測異常行為。DDoS 標準適用於虛擬網路，因此必須為應用前面的網路資源（例如應用程式閘道或 NVA）配置它。</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2837,7 +2877,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2845,7 +2885,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2861,17 +2901,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>漏洞管理</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>部署經過驗證的代碼</t>
+          <t>通過 Azure 容器註冊表中的虛擬網路拉取容器映像。</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>部署根據 DevSecOps 實踐驗證和掃描漏洞的受信任代碼。</t>
+          <t>使用存儲在 Azure Container Registry 中的映射時，請確保使用專用終結點並配置應用設置“WEBSITE_PULL_IMAGE_OVER_VNET”，通過虛擬網路拉取這些映像。這可確保應用服務和註冊表之間的安全通信，防止暴露於公共 Internet。</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2887,14 +2927,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2910,22 +2950,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>漏洞管理</t>
+          <t>滲透測試</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>使用最新的平臺、語言、協定和框架</t>
+          <t>對 Web 應用程式進行滲透測試。</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>使用最新版本的受支援平臺、程式設計語言、協定和框架。</t>
+          <t>根據 Azure 的滲透測試參與規則，對 Web 應用程式執行滲透測試。這有助於識別可以在被利用之前解決的漏洞和安全弱點。</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2936,7 +2976,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2944,7 +2984,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2953,83 +2993,248 @@
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>漏洞管理</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>部署經過驗證和漏洞掃描的代碼。</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>確保僅按照 DevSecOps 實踐將已經過驗證和漏洞掃描的可信代碼部署到生產環境中。這樣可以最大限度地降低將安全漏洞引入應用程式環境的風險。</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
-      <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>漏洞管理</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>使用最新的平臺、語言、協定和框架</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="inlineStr">
+        <is>
+          <t>確保使用最新版本的受支援平臺、程式設計語言、協定和框架。定期更新可降低安全漏洞的風險，並確保與安全補丁相容。</t>
+        </is>
+      </c>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>成本治理</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>成本監控</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>使用 Azure 成本管理監視應用服務成本並創建成本警報。</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="inlineStr">
+        <is>
+          <t>利用 Azure 成本管理來跟蹤和預測應用服務費用。為預算閾值設置警報以避免超支，並根據資源利用率趨勢優化成本。</t>
+        </is>
+      </c>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>42eb48f0-28ff-497c-b2c0-a8fa1f989832</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
-      <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>成本治理</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>成本優化</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>為應用服務計劃購買預留實例以優化長期成本。</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>如果你有可預測且穩定的應用服務使用方式，則購買預留實例可以顯著降低長期成本。與現收現付相比，承諾一年或三年的定價更低。</t>
+        </is>
+      </c>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>e489221b-487e-48a3-aaab-48e3d205ca12</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
-      <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>治理和安全</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>合規</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>應用 Azure Policy 以跨應用服務配置強制實施合規性。</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="inlineStr">
+        <is>
+          <t>使用 Azure Policy 強制實施應用服務的安全性、合規性和治理配置。策略可以確保在所有應用服務實例中強制實施關鍵設置，例如TLS版本、備份配置和網路限制。</t>
+        </is>
+      </c>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>361e886f-ca40-4ead-a8e9-1379c642ae9c</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -7046,7 +7251,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7152,7 +7357,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7179,7 +7384,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的措施項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7206,7 +7411,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7223,7 +7428,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
